--- a/data/trans_dic/P33B_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03977074061727978</v>
+        <v>0.03977074061727979</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.08447544054266397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0608091452344903</v>
+        <v>0.06080914523449029</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01641775141380008</v>
+        <v>0.01676579165224017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04579486408733897</v>
+        <v>0.04781176831835953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0404291123076223</v>
+        <v>0.04006917202191678</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08589924555241282</v>
+        <v>0.08155650121280457</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1346428177022255</v>
+        <v>0.1352628512221531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09240430973356931</v>
+        <v>0.09019221821644621</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03451855347264516</v>
+        <v>0.03659656286654222</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05961188447066328</v>
+        <v>0.06193129906953918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05382266709325824</v>
+        <v>0.0550375003988593</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09353879702938296</v>
+        <v>0.09126066440476452</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1125210457955731</v>
+        <v>0.1155501277640743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09152447767239827</v>
+        <v>0.09480242658230476</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07883673773685794</v>
+        <v>0.07925413194622137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1267722533856491</v>
+        <v>0.1296562776632829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1104184799491637</v>
+        <v>0.1115547931757977</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1320499097084965</v>
+        <v>0.1325247606564948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1776694312074324</v>
+        <v>0.1785980478416079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1474855001720068</v>
+        <v>0.1465846647964909</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2231940234803707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1861389212350918</v>
+        <v>0.1861389212350919</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1204540763861791</v>
+        <v>0.1220181575936949</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2007689870483581</v>
+        <v>0.1984336458885688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1692936241693063</v>
+        <v>0.1680773366410588</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1766291119310575</v>
+        <v>0.1756393046906468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2493370191346058</v>
+        <v>0.2467639887816269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2056695558589706</v>
+        <v>0.2047621946159654</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1740449102853114</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3230334214036487</v>
+        <v>0.3230334214036486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2484980585378314</v>
+        <v>0.2484980585378315</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1452481917446157</v>
+        <v>0.1461061784972593</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2952304920566393</v>
+        <v>0.2952277214203713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.227855136580994</v>
+        <v>0.2275233468978754</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.204056047229041</v>
+        <v>0.2031251944023278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3545417007881977</v>
+        <v>0.3534133264738725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2688220597934025</v>
+        <v>0.2690550929403706</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2058355521273148</v>
+        <v>0.2058355521273147</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3196696777735905</v>
+        <v>0.3196696777735904</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2649106956308354</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.172619459060897</v>
+        <v>0.1729755539784059</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2901065071022653</v>
+        <v>0.2869864267310637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2379542570925592</v>
+        <v>0.2412971928211361</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2378993310134226</v>
+        <v>0.2389163459189801</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3518068762385708</v>
+        <v>0.352691273022663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2882501368106845</v>
+        <v>0.2901010458055402</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.2935685854635793</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3696445607976804</v>
+        <v>0.3696445607976803</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3391871271495442</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2512679218440452</v>
+        <v>0.2517256585483489</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3364533846689623</v>
+        <v>0.3384684498000993</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3150112801693625</v>
+        <v>0.3148726394267654</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3388459452872493</v>
+        <v>0.337912987301689</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4034951539228558</v>
+        <v>0.407545669365746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3661768683242417</v>
+        <v>0.3676937193676129</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.2250572738734859</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6695</v>
+        <v>6837</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16601</v>
+        <v>17332</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31143</v>
+        <v>30865</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35029</v>
+        <v>33258</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48810</v>
+        <v>49034</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71180</v>
+        <v>69476</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16462</v>
+        <v>17453</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29871</v>
+        <v>31033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52637</v>
+        <v>53825</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44608</v>
+        <v>43521</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56382</v>
+        <v>57900</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>89508</v>
+        <v>92714</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48945</v>
+        <v>49204</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78870</v>
+        <v>80664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>137248</v>
+        <v>138660</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>81981</v>
+        <v>82276</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110535</v>
+        <v>111113</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>183321</v>
+        <v>182201</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>84392</v>
+        <v>85488</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147865</v>
+        <v>146145</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>243294</v>
+        <v>241546</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>123749</v>
+        <v>123056</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>183635</v>
+        <v>181740</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>295570</v>
+        <v>294266</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>88349</v>
+        <v>88871</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>179380</v>
+        <v>179379</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>277039</v>
+        <v>276636</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>124120</v>
+        <v>123554</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>215417</v>
+        <v>214732</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>326849</v>
+        <v>327133</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>70270</v>
+        <v>70415</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>127405</v>
+        <v>126035</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>201368</v>
+        <v>204197</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>96844</v>
+        <v>97258</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>154502</v>
+        <v>154890</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>243931</v>
+        <v>245497</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>77943</v>
+        <v>78085</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>156319</v>
+        <v>157255</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>244073</v>
+        <v>243966</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>105109</v>
+        <v>104820</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>187467</v>
+        <v>189349</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>283716</v>
+        <v>284892</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
     </row>
     <row r="36">
